--- a/input/PL/reg_partnership.xlsx
+++ b/input/PL/reg_partnership.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_D1B2CC1D7096D5070ED74C452278538D8DB91E63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6924C1B-C548-4640-9939-6238650E4563}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEU_JAN/input/PL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB89200-3D63-744C-8358-2A402577FEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
   <si>
     <t>Description:</t>
   </si>
@@ -204,9 +209,6 @@
     <t>Constant</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Dehsp_c4_Medium_L1</t>
   </si>
   <si>
@@ -271,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -280,6 +282,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +315,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,9 +334,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -371,7 +374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -477,7 +480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -619,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -629,11 +632,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -649,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -657,7 +660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -673,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -681,7 +684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -700,19 +703,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -726,7 +729,7 @@
         <v>692.78913889781575</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -740,12 +743,12 @@
         <v>-4787295.8291362207</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -759,7 +762,7 @@
         <v>176.37139558765489</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -780,13 +783,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AK35"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AJ14" sqref="A1:AJ35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -895,11 +903,8 @@
       <c r="AJ1" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1009,7 +1014,7 @@
         <v>-1.3737123397219745E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1119,7 +1124,7 @@
         <v>1.5790998508530073E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1229,7 +1234,7 @@
         <v>-1.6426316723233468E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1344,7 @@
         <v>-1.1750187512226927E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1449,7 +1454,7 @@
         <v>3.153343902905724E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>-4.1704967322112648E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1669,7 +1674,7 @@
         <v>-5.0700104057033457E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1779,7 +1784,7 @@
         <v>-4.2334005449576658E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +1894,7 @@
         <v>-3.5354693203620263E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1999,7 +2004,7 @@
         <v>1.6779554080713748E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>-1.3021000706258184E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>1.0170009906308327E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2329,7 +2334,7 @@
         <v>-5.3909412826583193E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2439,7 +2444,7 @@
         <v>4.8065304216768009E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2549,7 +2554,7 @@
         <v>4.7876597521996737E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2659,7 +2664,7 @@
         <v>-1.0998605998748573E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2769,7 +2774,7 @@
         <v>3.1364143138344527E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2879,7 +2884,7 @@
         <v>-2.1652790651327616E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -2989,7 +2994,7 @@
         <v>-6.4323605706343061E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3099,7 +3104,7 @@
         <v>-6.4858051857528661E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3209,7 +3214,7 @@
         <v>-1.4883233683877379E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -3319,7 +3324,7 @@
         <v>2.6349564350518851E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>2.2491514371111264E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -3539,7 +3544,7 @@
         <v>6.6110299369622856E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3649,7 +3654,7 @@
         <v>-3.6221113988364612E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -3759,7 +3764,7 @@
         <v>-3.8007019408667124E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>-4.0188561898431015E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -3979,7 +3984,7 @@
         <v>-4.1779007192421634E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -4089,7 +4094,7 @@
         <v>-1.0558889646960254E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>-2.8181972673451322E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -4309,7 +4314,7 @@
         <v>-3.6235736918478287E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
@@ -4419,7 +4424,7 @@
         <v>1.6458093995394232E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -4529,7 +4534,7 @@
         <v>-3.5286124494220676E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -4641,18 +4646,24 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="F17" sqref="A1:AF31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -4666,49 +4677,49 @@
         <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>63</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>69</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>70</v>
-      </c>
-      <c r="S1" t="s">
-        <v>71</v>
       </c>
       <c r="T1" t="s">
         <v>25</v>
@@ -4717,19 +4728,19 @@
         <v>26</v>
       </c>
       <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
         <v>72</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>73</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>75</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>76</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -4749,11 +4760,8 @@
       <c r="AF1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4851,7 +4859,7 @@
         <v>-1.0614376038956951E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -4949,9 +4957,9 @@
         <v>1.1078841403356981E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>7.4218997070014989E-2</v>
@@ -5047,9 +5055,9 @@
         <v>-1.3751893641947632E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>-4.9264298795034016E-2</v>
@@ -5145,9 +5153,9 @@
         <v>-5.1680041175217115E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>7.5893445602928364E-2</v>
@@ -5243,9 +5251,9 @@
         <v>-1.2767715221919274E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>7.6499577724728915E-2</v>
@@ -5341,9 +5349,9 @@
         <v>-1.8095772569022839E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>-0.17468564780953338</v>
@@ -5439,9 +5447,9 @@
         <v>-6.8998689710599803E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>-0.11257776812481735</v>
@@ -5537,9 +5545,9 @@
         <v>-6.1060832753046135E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>6.4993300251369929E-2</v>
@@ -5635,9 +5643,9 @@
         <v>-5.9845235413058862E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>-7.9310045801739157E-2</v>
@@ -5733,9 +5741,9 @@
         <v>-7.8181719933197336E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>0.41795542997590091</v>
@@ -5831,9 +5839,9 @@
         <v>-1.5282588862388254E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>0.25953095995713532</v>
@@ -5929,9 +5937,9 @@
         <v>-8.620041528395652E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>9.1040129196686748E-2</v>
@@ -6027,9 +6035,9 @@
         <v>-1.7483004318354312E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>0.40718442961297024</v>
@@ -6125,9 +6133,9 @@
         <v>-3.354000099045501E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>-8.7507929206346466E-2</v>
@@ -6223,9 +6231,9 @@
         <v>-7.9694921540220398E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>0.71070590739030204</v>
@@ -6321,9 +6329,9 @@
         <v>-4.7038033738147161E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>-1.2069752751993679E-2</v>
@@ -6419,7 +6427,7 @@
         <v>1.9753055981819958E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -6517,7 +6525,7 @@
         <v>8.3184824836872104E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -6615,9 +6623,9 @@
         <v>-2.0190512709002375E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <v>0.52693490683344657</v>
@@ -6713,9 +6721,9 @@
         <v>1.2979534655555951E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22">
         <v>5.8439808737788479E-2</v>
@@ -6811,9 +6819,9 @@
         <v>-4.0790662797016916E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23">
         <v>0.33282396635330652</v>
@@ -6909,9 +6917,9 @@
         <v>-3.3925049769673879E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>2.2633862604240877E-2</v>
@@ -7007,9 +7015,9 @@
         <v>-3.0107540991782273E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25">
         <v>-1.2348655879188103E-2</v>
@@ -7105,7 +7113,7 @@
         <v>1.759812046446884E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -7203,7 +7211,7 @@
         <v>-1.1939865908177916E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -7301,7 +7309,7 @@
         <v>8.2310665558321915E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -7399,7 +7407,7 @@
         <v>1.1302393444868053E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:32">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -7497,7 +7505,7 @@
         <v>2.5483606378370327E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:32">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -7595,7 +7603,7 @@
         <v>-1.8224554661008452E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:32">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
